--- a/spreadsheets/Xin Zhao.xlsx
+++ b/spreadsheets/Xin Zhao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761D1ED-6190-419A-B05C-30C53DA5646D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B9D0D-4B62-49D6-91EF-94E5A34AEFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>https://twitter.com/Daikong_LoL</t>
   </si>
   <si>
-    <t>https://i.imgur.com/FGtPF3X.jpg</t>
-  </si>
-  <si>
     <t>Quite a free matchup if you play hyper aggro, invade a lot and get some early kills. Focus on early drake when he farms topside for his lvl 6 If your laners manage to get prio and invade him, you can literally ruin his life and snowball the entire game from that.</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>He will be low health during his early clear and has no escape, meaning you can invade and kill him easily. Easy to set up vision to see his pathing early. Be careful if your team is full AD, he'll powerspike earlier and might snowball the game if he gets ahead.</t>
   </si>
   <si>
-    <t>There is no real counterplay against Ekko, his entire kit counters yours. Try to avoid direct confrontation and play cross-map (i.e do drake when he ganks top). Go tanky (Sterakk into GA, no triforce) and peel your backlane from his dive.</t>
-  </si>
-  <si>
     <t>Skill matchup, the one getting the most early kills will snowball easily, and the other will be useless. In early game, you can gank at lvl 2 while she has to get lvl 3, try to use that to make an early difference. Mercs are mandatory, you outscale her at 3 items.</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>Timings are tricky but the matchup is winnable once you're used to it.  Try to countergank or to engage on him AFTER he went him since he has little escape and you basically oneshot him.</t>
   </si>
   <si>
-    <t>He might bamboozle you early by stealing your buffs. Just mirror him to prevent him from being helpful. Build mercs and executionner's calling ASAP. He cannot contest early drake, so the 1st one is free.</t>
-  </si>
-  <si>
     <t>If Jarvan goes tanky (cinderhulk+locket), the matchup is really hard. Else it's free. Try to engage on him right after his combo, you'll one shot him and he has no way of escaping.</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>You win early, he wins post 6 until you get Sterak. Just mirror him to prevent him from doing stuff on the map.  He wins 1v1 but if he engages recklessly you can one shot him really easily. You scale better, don't be afraid if the game goes to late.</t>
   </si>
   <si>
-    <t>If you get early kills, you can just destroy him 1v1 and stop him from getting any gold/xp for the rest of the game. Lots of Yi invadeat lvl 2, so be sure to ward, you win that fight if your cds are up. If he gets ahead, go for a tank/support build and peel your team.</t>
-  </si>
-  <si>
     <t>Really easy matchup, she can never face you, is very sensible to your invades and falls off really hard if she doesn't get ahead. Be sure to be proactive early so she doesn't get tons of kills while you farm.</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t>Really easy matchup, full invade, play hyper aggro. She has no way to escape you, you can dodge her spells quite easily, dash on her and one shot her. Also, don't hesitate to use your ult to tank her spells during 1v1s.</t>
   </si>
   <si>
-    <t>Twitch is literally the easiest of Xin matchups. You can invade him at any time, and if he doesn't get super fed, you never lose a 1v1 against him. Start the fight with your R to cc him, then dash on him. If he flahes out, he's can't damage you.  Play super aggro.</t>
-  </si>
-  <si>
     <t>He can just run on you and beat the shit out of you. Try to avoid him, concede your camps if needed. He scales better, farms better and can totally negate your impact during game. Tell your laners that you need help, bait him and try to collapse on him.</t>
   </si>
   <si>
@@ -376,6 +361,21 @@
   </si>
   <si>
     <t>If you run into him 1v1, he'll one shot you at any point of the game. Early game, play opposite side. Try to sneak objectives. Your goal is to not die, not get outfarmed and help your team neutral objectives. If get herald,  let ALL the plate gold to your carries. Early sterak and GA. Concede everything early.</t>
+  </si>
+  <si>
+    <t>If you get early kills, you can just destroy him 1v1 and stop him from getting any gold/xp for the rest of the game. Lots of Yi invade at lvl 2, so be sure to ward, you win that fight if your cds are up. If he gets ahead, go for a tank/support build and peel your team.</t>
+  </si>
+  <si>
+    <t>Twitch is literally the easiest of Xin matchups. You can invade him at any time, and if he doesn't get super fed, you never lose a 1v1 against him. Start the fight with your R to cc him, then dash on him. If he flashes out, he's can't damage you.  Play super aggro.</t>
+  </si>
+  <si>
+    <t>There is no real counterplay against Ekko, his entire kit counters yours. Try to avoid direct confrontation and play cross-map (i.e do drake when he ganks top). Go tanky (Sterakk into GA, no triforce) and peel your backline from his dive.</t>
+  </si>
+  <si>
+    <t>He might bamboozle you early by stealing your buffs. Just mirror him to prevent him from being helpful. Build mercs and executioner's calling ASAP. He cannot contest early drake, so the 1st one is free.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/yOkMgcr.png</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -787,7 +787,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -1806,7 +1806,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" tooltip="https://twitter.com/Daikong_LoL" xr:uid="{E0B7C1DA-532A-4C41-81BE-4AB670C33A6C}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{46C566C1-E619-4563-A841-618DC73E9D22}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{D4D6B567-BB3C-44F9-91DA-19999D23DB72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -1865,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -1893,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>21</v>
@@ -1921,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
@@ -1949,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1961,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>36</v>
@@ -1975,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>3.5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
         <v>4.5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/spreadsheets/Xin Zhao.xlsx
+++ b/spreadsheets/Xin Zhao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B9D0D-4B62-49D6-91EF-94E5A34AEFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376D4D9-1C23-4535-AD07-48FAE170E31F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3330" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Champion</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>https://i.imgur.com/yOkMgcr.png</t>
+  </si>
+  <si>
+    <t>https://na.op.gg/summoner/userName=daikong</t>
+  </si>
+  <si>
+    <t>XinZhao</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -761,6 +767,9 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -1807,10 +1816,11 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" tooltip="https://twitter.com/Daikong_LoL" xr:uid="{E0B7C1DA-532A-4C41-81BE-4AB670C33A6C}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{D4D6B567-BB3C-44F9-91DA-19999D23DB72}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{245F0006-675E-485F-B31D-C81A55E059D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
